--- a/medicine/Médecine vétérinaire/Petit_Paysan/Petit_Paysan.xlsx
+++ b/medicine/Médecine vétérinaire/Petit_Paysan/Petit_Paysan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit Paysan est un film français réalisé par Hubert Charuel et sorti en 2017.
 Il a reçu trois César en 2018 : meilleur premier film, meilleur acteur et meilleure actrice dans un second rôle.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre (Swann Arlaud) est un paysan qui gère seul un troupeau d'une trentaine de vaches laitières sur l'exploitation qu'il a reprise de ses parents. Il sollicite sa sœur (Sara Giraudeau), vétérinaire, pour obtenir son avis sur l'état de santé de sa vache Topaze car elle lui semble avoir un comportement anormal et il craint qu'elle ne souffre de FHD (fièvre hémorragique dorsale, une maladie fictive inventée pour les besoins du film[1]). Le diagnostic est sans appel. Pierre sait que si une vache est atteinte, les autorités sanitaires abattront tout le troupeau, en application du principe de précaution. Il décide donc de tout faire pour dissimuler la vérité aux yeux de tous, parents, voisins, amis. Mais les choses s'aggravent.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre (Swann Arlaud) est un paysan qui gère seul un troupeau d'une trentaine de vaches laitières sur l'exploitation qu'il a reprise de ses parents. Il sollicite sa sœur (Sara Giraudeau), vétérinaire, pour obtenir son avis sur l'état de santé de sa vache Topaze car elle lui semble avoir un comportement anormal et il craint qu'elle ne souffre de FHD (fièvre hémorragique dorsale, une maladie fictive inventée pour les besoins du film). Le diagnostic est sans appel. Pierre sait que si une vache est atteinte, les autorités sanitaires abattront tout le troupeau, en application du principe de précaution. Il décide donc de tout faire pour dissimuler la vérité aux yeux de tous, parents, voisins, amis. Mais les choses s'aggravent.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Petit Paysan
 Titre international : Bloody Milk
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Swann Arlaud : Pierre Chavanges
 Sara Giraudeau : Pascale Chavanges
@@ -633,9 +651,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hubert Charuel, le réalisateur, est un enfant du milieu agricole. Il a investi la ferme où il a grandi, à Droyes, en Haute-Marne, et l'interprète du vieux paysan (« Raymond ») est son propre grand-père, celui du père du « petit paysan » est son propre père, celle de la contrôleuse est sa propre mère[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hubert Charuel, le réalisateur, est un enfant du milieu agricole. Il a investi la ferme où il a grandi, à Droyes, en Haute-Marne, et l'interprète du vieux paysan (« Raymond ») est son propre grand-père, celui du père du « petit paysan » est son propre père, celle de la contrôleuse est sa propre mère.
 Le film se réfère clairement à la crise de la « vache folle » (encéphalopathie spongiforme bovine) qui a provoqué une véritable psychose dans l'opinion publique, tant la peur de la contagion à l'homme par la consommation de la viande et des produits laitiers était forte (à tort). La filière bovine a été fortement ébranlée et a énormément souffert de cette crise : le film met l'accent sur le sort des éleveurs confrontés à la catastrophe.</t>
         </is>
       </c>
@@ -664,14 +684,16 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'accueil critique est positif : le site Allociné recense une moyenne des critiques presse de 4,1/5, et des critiques spectateurs à 3,9/5[5].
-Jean-Michel Frodon écrit sur Slate que le film « est une très émouvante évocation du drame des paysans confrontés à une crise sanitaire en même temps qu'une plongée dans un rapport au monde délirant », soulignant qu'il s'agit d'un « récit fictionnel mais très inscrit dans les faits du traumatisme des paysans confrontés aux épidémies type “vache folle” ou grippe aviaire[6]. »
-Dans les Cahiers du cinéma[7], Laura Tuillier estime que le film « dans ses meilleurs moments, prend la forme d'un cri d'adieu, sombre et sanglant, à la campagne française. »
-Pour Isabelle Regnier (Le Monde)[8], 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'accueil critique est positif : le site Allociné recense une moyenne des critiques presse de 4,1/5, et des critiques spectateurs à 3,9/5.
+Jean-Michel Frodon écrit sur Slate que le film « est une très émouvante évocation du drame des paysans confrontés à une crise sanitaire en même temps qu'une plongée dans un rapport au monde délirant », soulignant qu'il s'agit d'un « récit fictionnel mais très inscrit dans les faits du traumatisme des paysans confrontés aux épidémies type “vache folle” ou grippe aviaire. »
+Dans les Cahiers du cinéma, Laura Tuillier estime que le film « dans ses meilleurs moments, prend la forme d'un cri d'adieu, sombre et sanglant, à la campagne française. »
+Pour Isabelle Regnier (Le Monde), 
 « la ruralité dépeinte par Hubert Charuel n'est pas coupée de la marche du monde. Tout au contraire, elle apparaît branchée sur son environnement, sur la pulsation d’une société néolibérale dont elle n’est, finalement, qu’un des multiples visages. »
-« Loin de camper sur un arrière-plan de crise caricaturée — comme Normandie nue de Philippe Le Guay, comédie inégale sortie dans la foulée —, le thriller mental de Charuel prend corps autour des peurs d'un jeune éleveur de vaches laitières », note Jean-Michel Dumay dans Le Monde diplomatique[9].
+« Loin de camper sur un arrière-plan de crise caricaturée — comme Normandie nue de Philippe Le Guay, comédie inégale sortie dans la foulée —, le thriller mental de Charuel prend corps autour des peurs d'un jeune éleveur de vaches laitières », note Jean-Michel Dumay dans Le Monde diplomatique.
 </t>
         </is>
       </c>
@@ -702,15 +724,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-2015 : Prix d'aide à la création de la fondation Gan pour le cinéma[10]
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2015 : Prix d'aide à la création de la fondation Gan pour le cinéma
 2016 : Prix du meilleur scénario de long métrage à Hubert Charuel au festival Premiers Plans d'Angers
-2017 : Festival du film francophone d'Angoulême[11]
+2017 : Festival du film francophone d'Angoulême
 Valois de diamant du meilleur film
 Valois du meilleur acteur pour Swann Arlaud
 2017 : Prix du Jury Junior et Prix BeTV au Festival international du film francophone de Namur
-2018 : Prix Jean-Renoir des lycéens[12]
-2018 : PROlogue, Festival international de Tachkent[13]
+2018 : Prix Jean-Renoir des lycéens
+2018 : PROlogue, Festival international de Tachkent
 Prix du meilleur scénario
 César 2018 :
 César du meilleur acteur pour Swann Arlaud
@@ -718,8 +745,43 @@
 César du meilleur premier film pour Hubert Charuel
 	Cérémonie des César 2018
 			Swann Arlaud, Sara Giraudeau et le réalisateur Hubert Charuel repartent avec chacun un César
-Nominations et sélection
-2017 : Festival de Cannes (séance spéciale 56e Semaine de la critique)[14] (première mondiale)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Petit_Paysan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Paysan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations et sélection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2017 : Festival de Cannes (séance spéciale 56e Semaine de la critique) (première mondiale)
 César 2018 :
 Nomination pour le César du meilleur film
 Nomination pour le César du meilleur réalisateur pour Hubert Charuel
